--- a/test-data/검증/계약자관리명부(10월).xlsx
+++ b/test-data/검증/계약자관리명부(10월).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\test-data\검증\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\project\my\nanumpay\test-data\검증\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6783C2-13E9-4F67-B525-F8FA4B1F12FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA3DCC7-D062-4F2A-804E-E32C9C1CA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10월4째주" sheetId="1" r:id="rId1"/>
@@ -105,22 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10-5-8514-4525</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>윤옥순3</t>
   </si>
   <si>
@@ -1055,6 +1039,9 @@
   <si>
     <t>설계사 계좌번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-8514-4525</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1426,8 @@
   <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -1469,58 +1456,58 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" customHeight="1">
@@ -1531,44 +1518,44 @@
         <v>45954</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1581,46 +1568,46 @@
         <v>45954</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1634,46 +1621,46 @@
         <v>45954</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1687,46 +1674,46 @@
         <v>45954</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1740,46 +1727,46 @@
         <v>45954</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="P6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1793,46 +1780,46 @@
         <v>45954</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1846,46 +1833,46 @@
         <v>45954</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1899,46 +1886,46 @@
         <v>45954</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1952,46 +1939,46 @@
         <v>45957</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -2005,46 +1992,46 @@
         <v>45957</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="N11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -2058,46 +2045,46 @@
         <v>45957</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -2111,19 +2098,19 @@
         <v>45957</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2132,19 +2119,19 @@
         <v>94669540457</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="2">
         <v>94669540457</v>
@@ -2162,19 +2149,19 @@
         <v>45957</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2183,19 +2170,19 @@
         <v>94669540457</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="2">
         <v>94669540457</v>
@@ -2213,19 +2200,19 @@
         <v>45957</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2234,19 +2221,19 @@
         <v>94669540457</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="2">
         <v>94669540457</v>
@@ -2264,46 +2251,46 @@
         <v>45957</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -2317,46 +2304,46 @@
         <v>45957</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -2370,46 +2357,46 @@
         <v>45957</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -2423,46 +2410,46 @@
         <v>45957</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -2476,46 +2463,46 @@
         <v>45957</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="N20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -2529,46 +2516,46 @@
         <v>45957</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -2582,46 +2569,46 @@
         <v>45957</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="E22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -2635,46 +2622,46 @@
         <v>45957</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2688,46 +2675,46 @@
         <v>45957</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -2741,46 +2728,46 @@
         <v>45957</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2794,46 +2781,46 @@
         <v>45957</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="P26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2847,46 +2834,46 @@
         <v>45957</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="P27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2900,46 +2887,46 @@
         <v>45957</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -2953,46 +2940,46 @@
         <v>45957</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -3006,46 +2993,46 @@
         <v>45957</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -3059,46 +3046,46 @@
         <v>45957</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="M31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3112,46 +3099,46 @@
         <v>45957</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="J32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="M32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="O32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -3165,46 +3152,46 @@
         <v>45957</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="M33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="O33" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -3218,46 +3205,46 @@
         <v>45957</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="K34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="M34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="O34" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -3271,46 +3258,46 @@
         <v>45957</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="K35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="M35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="O35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -3324,46 +3311,46 @@
         <v>45957</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -3377,46 +3364,46 @@
         <v>45957</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -3430,46 +3417,46 @@
         <v>45957</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -3483,46 +3470,46 @@
         <v>45957</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -3536,46 +3523,46 @@
         <v>45957</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="P40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -3589,46 +3576,46 @@
         <v>45957</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -3645,28 +3632,28 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>1</v>
@@ -3675,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3696,25 +3683,25 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>0</v>
@@ -3726,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -3747,25 +3734,25 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>0</v>
@@ -3777,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3798,25 +3785,25 @@
         <v>1</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>0</v>
@@ -3828,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3849,25 +3836,25 @@
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>0</v>
@@ -3879,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3897,28 +3884,28 @@
         <v>45957</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>0</v>
@@ -3930,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3948,31 +3935,31 @@
         <v>45957</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>1</v>
@@ -3981,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3999,31 +3986,31 @@
         <v>45957</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="3">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="K49" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>1</v>
@@ -4032,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -4050,31 +4037,31 @@
         <v>45957</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="K50" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>1</v>
@@ -4083,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -4113,19 +4100,19 @@
         <v>3</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>1</v>
@@ -4134,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -4164,13 +4151,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -4185,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -4215,13 +4202,13 @@
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>2</v>
@@ -4236,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -4266,13 +4253,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>2</v>
@@ -4287,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
